--- a/2/dots.xlsx
+++ b/2/dots.xlsx
@@ -5,39 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studlance\python(16.02.21)\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PycharmProjects\pythonProject\python(16.02.21)\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="First" sheetId="1" r:id="rId1"/>
-    <sheet name="Second" sheetId="2" r:id="rId2"/>
-    <sheet name="Firth" sheetId="3" r:id="rId3"/>
+    <sheet name="Second" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Sochi</t>
-  </si>
-  <si>
-    <t>Vladivostok</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Medellin</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,53 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,18 +400,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>